--- a/template_automation/ARPA_DREAMS_templates/DREAMS_template_v1.xlsx
+++ b/template_automation/ARPA_DREAMS_templates/DREAMS_template_v1.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidsong\Desktop\USAID\1_DREAMS_ARPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmontespenaloza\Documents\GitHub\EA-Utilities\template_automation\ARPA_DREAMS_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE229B9-4172-4E29-B4E8-C66CFE84C57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D91B35-02E2-40CE-A1CF-C729F9B52685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="893" windowWidth="19200" windowHeight="12767" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes and Data Dictionary" sheetId="1" r:id="rId1"/>
-    <sheet name="ARPA category IM data" sheetId="3" r:id="rId2"/>
+    <sheet name="DREAMS category IM data" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -338,24 +349,24 @@
     <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,39 +670,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="22.703125" customWidth="1"/>
-    <col min="6" max="6" width="10.703125" customWidth="1"/>
+    <col min="1" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+    <row r="2" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -715,7 +726,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -727,7 +738,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -737,343 +748,339 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="18" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
@@ -1087,11 +1094,15 @@
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B20:H20"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1102,25 +1113,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1C59DE-4E87-444E-8260-97089365B76D}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.29296875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.8203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="23.46875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="27.9375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.8203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.41015625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.29296875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.3515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.9375" style="8"/>
+    <col min="1" max="1" width="19.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -1172,25 +1183,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" ht="13" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="77" ht="13" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="78" ht="13" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="79" ht="13" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="80" ht="13" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="81" ht="13" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="82" ht="13" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="83" ht="13" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="84" ht="13" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="85" ht="13" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="86" ht="13" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="87" ht="13" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="88" ht="13" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="89" ht="13" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="90" ht="13" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="91" ht="13" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="92" ht="13" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="93" ht="13" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="94" ht="13" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="76" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/template_automation/ARPA_DREAMS_templates/DREAMS_template_v1.xlsx
+++ b/template_automation/ARPA_DREAMS_templates/DREAMS_template_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmontespenaloza\Documents\GitHub\EA-Utilities\template_automation\ARPA_DREAMS_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D91B35-02E2-40CE-A1CF-C729F9B52685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E83242C-EC41-4C16-8788-B628957F9164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Program Area</t>
   </si>
@@ -56,30 +56,6 @@
   </si>
   <si>
     <t>DREAMS Expenditure</t>
-  </si>
-  <si>
-    <t>program: sub_program</t>
-  </si>
-  <si>
-    <t>interaction_type</t>
-  </si>
-  <si>
-    <t>beneficiary: sub_beneficiary</t>
-  </si>
-  <si>
-    <t>cost_category: sub_cost_category</t>
-  </si>
-  <si>
-    <t>workplan_budget_amt</t>
-  </si>
-  <si>
-    <t>expenditure_amt</t>
-  </si>
-  <si>
-    <t>dreams_budget_amt</t>
-  </si>
-  <si>
-    <t>dreams_expenditure_amt</t>
   </si>
   <si>
     <t>USAID Financial Quarterly Template</t>
@@ -328,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -342,31 +318,28 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,48 +654,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="A1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -734,7 +707,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -749,338 +722,342 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="A6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="A7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="A8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="A9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="A11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="A21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="B23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="B24" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="B25" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="B26" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="B27" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+      <c r="B28" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+      <c r="B29" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+      <c r="B30" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
@@ -1094,15 +1071,11 @@
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1111,23 +1084,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1C59DE-4E87-444E-8260-97089365B76D}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
@@ -1141,7 +1114,7 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -1157,32 +1130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
+    <row r="75" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="76" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="77" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="78" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1201,7 +1149,6 @@
     <row r="91" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="92" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="93" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
